--- a/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Table23.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/Table23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb63/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E936AD-8281-864B-B7D0-BDBEE71E37A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E69F68-F9C9-5242-AF2B-A60B4A04F15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -598,10 +598,10 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="2" max="2" width="19"/>
@@ -624,6 +624,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -633,7 +636,9 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -642,8 +647,10 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
@@ -653,7 +660,9 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -662,8 +671,10 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -687,6 +698,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -695,8 +709,10 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -706,7 +722,9 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -730,6 +748,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -738,8 +759,10 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
@@ -749,7 +772,9 @@
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
@@ -758,8 +783,10 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
@@ -768,8 +795,10 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
@@ -779,7 +808,9 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
@@ -803,6 +834,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -811,8 +845,10 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -821,8 +857,10 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
@@ -832,7 +870,9 @@
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
@@ -856,6 +896,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
@@ -865,7 +908,9 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
@@ -889,6 +934,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
@@ -897,8 +945,10 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
@@ -907,8 +957,10 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>18</v>
       </c>
@@ -917,8 +969,10 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -927,8 +981,10 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>15</v>
       </c>
@@ -937,8 +993,10 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
@@ -962,6 +1020,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
@@ -971,7 +1032,9 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
@@ -980,8 +1043,10 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B36" s="7" t="s">
         <v>18</v>
       </c>
@@ -990,8 +1055,10 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1081,10 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="B39" s="4" t="s">
         <v>15</v>
       </c>
@@ -1023,8 +1093,10 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
@@ -1033,8 +1105,10 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="B41" s="7" t="s">
         <v>21</v>
       </c>
@@ -1081,7 +1155,7 @@
         <v>11804</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="20" t="s">
         <v>31</v>
       </c>
